--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Fgf17-Fgfr1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Fgf17-Fgfr1.xlsx
@@ -537,52 +537,52 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.354587869953133</v>
+        <v>0.366566</v>
       </c>
       <c r="H2">
-        <v>0.354587869953133</v>
+        <v>1.099698</v>
       </c>
       <c r="I2">
-        <v>0.5864066182715325</v>
+        <v>0.5689653834353526</v>
       </c>
       <c r="J2">
-        <v>0.5864066182715325</v>
+        <v>0.5689653834353527</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.02706498420459</v>
+        <v>5.855348</v>
       </c>
       <c r="N2">
-        <v>3.02706498420459</v>
+        <v>17.566044</v>
       </c>
       <c r="O2">
-        <v>0.0302880962211871</v>
+        <v>0.05092948808292105</v>
       </c>
       <c r="P2">
-        <v>0.0302880962211871</v>
+        <v>0.05092948808292105</v>
       </c>
       <c r="Q2">
-        <v>1.07336052495882</v>
+        <v>2.146371494968</v>
       </c>
       <c r="R2">
-        <v>1.07336052495882</v>
+        <v>19.317343454712</v>
       </c>
       <c r="S2">
-        <v>0.01776114007894911</v>
+        <v>0.0289771157152654</v>
       </c>
       <c r="T2">
-        <v>0.01776114007894911</v>
+        <v>0.0289771157152654</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.354587869953133</v>
+        <v>0.366566</v>
       </c>
       <c r="H3">
-        <v>0.354587869953133</v>
+        <v>1.099698</v>
       </c>
       <c r="I3">
-        <v>0.5864066182715325</v>
+        <v>0.5689653834353526</v>
       </c>
       <c r="J3">
-        <v>0.5864066182715325</v>
+        <v>0.5689653834353527</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>62.3111351173628</v>
+        <v>62.99699166666667</v>
       </c>
       <c r="N3">
-        <v>62.3111351173628</v>
+        <v>188.990975</v>
       </c>
       <c r="O3">
-        <v>0.6234704791387192</v>
+        <v>0.547944295769846</v>
       </c>
       <c r="P3">
-        <v>0.6234704791387192</v>
+        <v>0.547944295769846</v>
       </c>
       <c r="Q3">
-        <v>22.09477267562754</v>
+        <v>23.09255524728333</v>
       </c>
       <c r="R3">
-        <v>22.09477267562754</v>
+        <v>207.83299722555</v>
       </c>
       <c r="S3">
-        <v>0.3656072152638684</v>
+        <v>0.3117613363439047</v>
       </c>
       <c r="T3">
-        <v>0.3656072152638684</v>
+        <v>0.3117613363439048</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.354587869953133</v>
+        <v>0.366566</v>
       </c>
       <c r="H4">
-        <v>0.354587869953133</v>
+        <v>1.099698</v>
       </c>
       <c r="I4">
-        <v>0.5864066182715325</v>
+        <v>0.5689653834353526</v>
       </c>
       <c r="J4">
-        <v>0.5864066182715325</v>
+        <v>0.5689653834353527</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.162500910178019</v>
+        <v>0.2640463333333333</v>
       </c>
       <c r="N4">
-        <v>0.162500910178019</v>
+        <v>0.792139</v>
       </c>
       <c r="O4">
-        <v>0.001625945669876531</v>
+        <v>0.002296660179179615</v>
       </c>
       <c r="P4">
-        <v>0.001625945669876531</v>
+        <v>0.002296660179179615</v>
       </c>
       <c r="Q4">
-        <v>0.05762085160546915</v>
+        <v>0.09679040822466667</v>
       </c>
       <c r="R4">
-        <v>0.05762085160546915</v>
+        <v>0.8711136740220001</v>
       </c>
       <c r="S4">
-        <v>0.0009534653017655379</v>
+        <v>0.001306720139467635</v>
       </c>
       <c r="T4">
-        <v>0.0009534653017655379</v>
+        <v>0.001306720139467635</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.354587869953133</v>
+        <v>0.366566</v>
       </c>
       <c r="H5">
-        <v>0.354587869953133</v>
+        <v>1.099698</v>
       </c>
       <c r="I5">
-        <v>0.5864066182715325</v>
+        <v>0.5689653834353526</v>
       </c>
       <c r="J5">
-        <v>0.5864066182715325</v>
+        <v>0.5689653834353527</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.22034294483687</v>
+        <v>1.226170666666667</v>
       </c>
       <c r="N5">
-        <v>1.22034294483687</v>
+        <v>3.678512</v>
       </c>
       <c r="O5">
-        <v>0.01221046285062766</v>
+        <v>0.01066516360011862</v>
       </c>
       <c r="P5">
-        <v>0.01221046285062766</v>
+        <v>0.01066516360011862</v>
       </c>
       <c r="Q5">
-        <v>0.4327188054220394</v>
+        <v>0.4494724765973334</v>
       </c>
       <c r="R5">
-        <v>0.4327188054220394</v>
+        <v>4.045252289376</v>
       </c>
       <c r="S5">
-        <v>0.007160296227766741</v>
+        <v>0.006068108897142256</v>
       </c>
       <c r="T5">
-        <v>0.007160296227766741</v>
+        <v>0.006068108897142256</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.354587869953133</v>
+        <v>0.366566</v>
       </c>
       <c r="H6">
-        <v>0.354587869953133</v>
+        <v>1.099698</v>
       </c>
       <c r="I6">
-        <v>0.5864066182715325</v>
+        <v>0.5689653834353526</v>
       </c>
       <c r="J6">
-        <v>0.5864066182715325</v>
+        <v>0.5689653834353527</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.70903210099761</v>
+        <v>0.763133</v>
       </c>
       <c r="N6">
-        <v>0.70903210099761</v>
+        <v>2.289399</v>
       </c>
       <c r="O6">
-        <v>0.007094407490749337</v>
+        <v>0.006637687978440185</v>
       </c>
       <c r="P6">
-        <v>0.007094407490749337</v>
+        <v>0.006637687978440185</v>
       </c>
       <c r="Q6">
-        <v>0.2514141824211372</v>
+        <v>0.279738611278</v>
       </c>
       <c r="R6">
-        <v>0.2514141824211372</v>
+        <v>2.517647501502</v>
       </c>
       <c r="S6">
-        <v>0.004160207505290547</v>
+        <v>0.003776614685777451</v>
       </c>
       <c r="T6">
-        <v>0.004160207505290547</v>
+        <v>0.003776614685777452</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.354587869953133</v>
+        <v>0.366566</v>
       </c>
       <c r="H7">
-        <v>0.354587869953133</v>
+        <v>1.099698</v>
       </c>
       <c r="I7">
-        <v>0.5864066182715325</v>
+        <v>0.5689653834353526</v>
       </c>
       <c r="J7">
-        <v>0.5864066182715325</v>
+        <v>0.5689653834353527</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>32.5123225038424</v>
+        <v>43.864011</v>
       </c>
       <c r="N7">
-        <v>32.5123225038424</v>
+        <v>131.592033</v>
       </c>
       <c r="O7">
-        <v>0.3253106086288401</v>
+        <v>0.3815267043894945</v>
       </c>
       <c r="P7">
-        <v>0.3253106086288401</v>
+        <v>0.3815267043894945</v>
       </c>
       <c r="Q7">
-        <v>11.52847518386679</v>
+        <v>16.079055056226</v>
       </c>
       <c r="R7">
-        <v>11.52847518386679</v>
+        <v>144.711495506034</v>
       </c>
       <c r="S7">
-        <v>0.1907642938938921</v>
+        <v>0.2170754876537952</v>
       </c>
       <c r="T7">
-        <v>0.1907642938938921</v>
+        <v>0.2170754876537952</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.250091304709495</v>
+        <v>0.2777016666666667</v>
       </c>
       <c r="H8">
-        <v>0.250091304709495</v>
+        <v>0.833105</v>
       </c>
       <c r="I8">
-        <v>0.4135933817284675</v>
+        <v>0.4310346165646473</v>
       </c>
       <c r="J8">
-        <v>0.4135933817284675</v>
+        <v>0.4310346165646473</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.02706498420459</v>
+        <v>5.855348</v>
       </c>
       <c r="N8">
-        <v>3.02706498420459</v>
+        <v>17.566044</v>
       </c>
       <c r="O8">
-        <v>0.0302880962211871</v>
+        <v>0.05092948808292105</v>
       </c>
       <c r="P8">
-        <v>0.0302880962211871</v>
+        <v>0.05092948808292105</v>
       </c>
       <c r="Q8">
-        <v>0.7570426313401527</v>
+        <v>1.626039898513334</v>
       </c>
       <c r="R8">
-        <v>0.7570426313401527</v>
+        <v>14.63435908662</v>
       </c>
       <c r="S8">
-        <v>0.01252695614223799</v>
+        <v>0.02195237236765565</v>
       </c>
       <c r="T8">
-        <v>0.01252695614223799</v>
+        <v>0.02195237236765565</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>20</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.250091304709495</v>
+        <v>0.2777016666666667</v>
       </c>
       <c r="H9">
-        <v>0.250091304709495</v>
+        <v>0.833105</v>
       </c>
       <c r="I9">
-        <v>0.4135933817284675</v>
+        <v>0.4310346165646473</v>
       </c>
       <c r="J9">
-        <v>0.4135933817284675</v>
+        <v>0.4310346165646473</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>62.3111351173628</v>
+        <v>62.99699166666667</v>
       </c>
       <c r="N9">
-        <v>62.3111351173628</v>
+        <v>188.990975</v>
       </c>
       <c r="O9">
-        <v>0.6234704791387192</v>
+        <v>0.547944295769846</v>
       </c>
       <c r="P9">
-        <v>0.6234704791387192</v>
+        <v>0.547944295769846</v>
       </c>
       <c r="Q9">
-        <v>15.58347307943089</v>
+        <v>17.49436958081944</v>
       </c>
       <c r="R9">
-        <v>15.58347307943089</v>
+        <v>157.449326227375</v>
       </c>
       <c r="S9">
-        <v>0.2578632638748508</v>
+        <v>0.2361829594259413</v>
       </c>
       <c r="T9">
-        <v>0.2578632638748508</v>
+        <v>0.2361829594259413</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>25</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.250091304709495</v>
+        <v>0.2777016666666667</v>
       </c>
       <c r="H10">
-        <v>0.250091304709495</v>
+        <v>0.833105</v>
       </c>
       <c r="I10">
-        <v>0.4135933817284675</v>
+        <v>0.4310346165646473</v>
       </c>
       <c r="J10">
-        <v>0.4135933817284675</v>
+        <v>0.4310346165646473</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.162500910178019</v>
+        <v>0.2640463333333333</v>
       </c>
       <c r="N10">
-        <v>0.162500910178019</v>
+        <v>0.792139</v>
       </c>
       <c r="O10">
-        <v>0.001625945669876531</v>
+        <v>0.002296660179179615</v>
       </c>
       <c r="P10">
-        <v>0.001625945669876531</v>
+        <v>0.002296660179179615</v>
       </c>
       <c r="Q10">
-        <v>0.04064006464290122</v>
+        <v>0.07332610684388889</v>
       </c>
       <c r="R10">
-        <v>0.04064006464290122</v>
+        <v>0.659934961595</v>
       </c>
       <c r="S10">
-        <v>0.0006724803681109928</v>
+        <v>0.0009899400397119793</v>
       </c>
       <c r="T10">
-        <v>0.0006724803681109928</v>
+        <v>0.0009899400397119793</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.250091304709495</v>
+        <v>0.2777016666666667</v>
       </c>
       <c r="H11">
-        <v>0.250091304709495</v>
+        <v>0.833105</v>
       </c>
       <c r="I11">
-        <v>0.4135933817284675</v>
+        <v>0.4310346165646473</v>
       </c>
       <c r="J11">
-        <v>0.4135933817284675</v>
+        <v>0.4310346165646473</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.22034294483687</v>
+        <v>1.226170666666667</v>
       </c>
       <c r="N11">
-        <v>1.22034294483687</v>
+        <v>3.678512</v>
       </c>
       <c r="O11">
-        <v>0.01221046285062766</v>
+        <v>0.01066516360011862</v>
       </c>
       <c r="P11">
-        <v>0.01221046285062766</v>
+        <v>0.01066516360011862</v>
       </c>
       <c r="Q11">
-        <v>0.30519715926728</v>
+        <v>0.3405096377511111</v>
       </c>
       <c r="R11">
-        <v>0.30519715926728</v>
+        <v>3.06458673976</v>
       </c>
       <c r="S11">
-        <v>0.005050166622860916</v>
+        <v>0.004597054702976363</v>
       </c>
       <c r="T11">
-        <v>0.005050166622860916</v>
+        <v>0.004597054702976362</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.250091304709495</v>
+        <v>0.2777016666666667</v>
       </c>
       <c r="H12">
-        <v>0.250091304709495</v>
+        <v>0.833105</v>
       </c>
       <c r="I12">
-        <v>0.4135933817284675</v>
+        <v>0.4310346165646473</v>
       </c>
       <c r="J12">
-        <v>0.4135933817284675</v>
+        <v>0.4310346165646473</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.70903210099761</v>
+        <v>0.763133</v>
       </c>
       <c r="N12">
-        <v>0.70903210099761</v>
+        <v>2.289399</v>
       </c>
       <c r="O12">
-        <v>0.007094407490749337</v>
+        <v>0.006637687978440185</v>
       </c>
       <c r="P12">
-        <v>0.007094407490749337</v>
+        <v>0.006637687978440185</v>
       </c>
       <c r="Q12">
-        <v>0.1773227632194067</v>
+        <v>0.2119233059883333</v>
       </c>
       <c r="R12">
-        <v>0.1773227632194067</v>
+        <v>1.907309753895</v>
       </c>
       <c r="S12">
-        <v>0.002934199985458789</v>
+        <v>0.002861073292662734</v>
       </c>
       <c r="T12">
-        <v>0.002934199985458789</v>
+        <v>0.002861073292662734</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.250091304709495</v>
+        <v>0.2777016666666667</v>
       </c>
       <c r="H13">
-        <v>0.250091304709495</v>
+        <v>0.833105</v>
       </c>
       <c r="I13">
-        <v>0.4135933817284675</v>
+        <v>0.4310346165646473</v>
       </c>
       <c r="J13">
-        <v>0.4135933817284675</v>
+        <v>0.4310346165646473</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>32.5123225038424</v>
+        <v>43.864011</v>
       </c>
       <c r="N13">
-        <v>32.5123225038424</v>
+        <v>131.592033</v>
       </c>
       <c r="O13">
-        <v>0.3253106086288401</v>
+        <v>0.3815267043894945</v>
       </c>
       <c r="P13">
-        <v>0.3253106086288401</v>
+        <v>0.3815267043894945</v>
       </c>
       <c r="Q13">
-        <v>8.13104915412182</v>
+        <v>12.181108961385</v>
       </c>
       <c r="R13">
-        <v>8.13104915412182</v>
+        <v>109.629980652465</v>
       </c>
       <c r="S13">
-        <v>0.134546314734948</v>
+        <v>0.1644512167356993</v>
       </c>
       <c r="T13">
-        <v>0.134546314734948</v>
+        <v>0.1644512167356993</v>
       </c>
     </row>
   </sheetData>
